--- a/public/files/datos_gestion.xlsx
+++ b/public/files/datos_gestion.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>meses</t>
   </si>
   <si>
-    <t>ea_anio_actual</t>
-  </si>
-  <si>
-    <t>ea_anio_anterior</t>
-  </si>
-  <si>
-    <t>rendimiento_anio_anterior</t>
-  </si>
-  <si>
-    <t>rendimiento_anio_actual</t>
-  </si>
-  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -77,57 +65,6 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
     <t>fiduciarias</t>
   </si>
   <si>
@@ -153,13 +90,49 @@
   </si>
   <si>
     <t>FIDUCOLOMBIA</t>
+  </si>
+  <si>
+    <t>gestiones_realizadas</t>
+  </si>
+  <si>
+    <t>Control del flujo de caja para identificar excedentes de liquidez para inversión den FIC</t>
+  </si>
+  <si>
+    <t>Análisis semanal de mercados y prospectivas para toma de decisiones de inversión</t>
+  </si>
+  <si>
+    <t>Acompañamiento en dicho Comité de profesionales en gestión de portafolios de las fiduciarias participantes del consorcio</t>
+  </si>
+  <si>
+    <t>Implementación de comité de inversiones en conjunto con el Consorcio EMCALI y las fiducias administradoras de los recursos</t>
+  </si>
+  <si>
+    <t>Los recursos solo se invertian en el % de participación de las consorciadas, aunque el contrato de fiducia no lo establece como requisito</t>
+  </si>
+  <si>
+    <t>Desde el 2 de marzo Emcali inicio seguimiento diario a las inversiones junto con el consorcio EMCALI</t>
+  </si>
+  <si>
+    <t>anios</t>
+  </si>
+  <si>
+    <t>rendimiento</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>saldo</t>
+  </si>
+  <si>
+    <t>total_anios_saldo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +152,10 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,32 +179,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,264 +517,429 @@
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="6">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12">
+        <v>71160694962.910004</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.24480237663486401</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="13">
+        <v>24591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="7">
+        <v>153</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12">
+        <v>69389157185.479996</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.23870804803900972</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="13">
+        <v>290686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="6">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44610709524.669998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.15346685021413653</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="7">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12">
+        <v>41124019764.839996</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.14147216775298702</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="8">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12">
+        <v>33410109901.41</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.11493527869226279</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12">
+        <v>30991599950.459999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.10661527866674006</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="7">
+        <v>510</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2">
-        <v>153</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>71160694962.910004</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.24480237663486401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="7">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1139</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>203</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>69389157185.479996</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.23870804803900972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="7">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="7">
+        <v>757</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B14" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="7">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="7">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="7">
+        <v>744</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="7">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="7">
+        <v>870</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>44610709524.669998</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.15346685021413653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2">
-        <v>510</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>41124019764.839996</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.14147216775298702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1139</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>33410109901.41</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.11493527869226279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2">
-        <v>757</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7">
-        <v>30991599950.459999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.10661527866674006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>120</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1024</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>94</v>
-      </c>
-      <c r="C9" s="2">
-        <v>744</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2">
-        <v>870</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>